--- a/hardware/hcuduino_production_files/Rev1.0/BOM/BOM_PartType-hcuduino_r1.0.xlsx
+++ b/hardware/hcuduino_production_files/Rev1.0/BOM/BOM_PartType-hcuduino_r1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\hcu_hardware\hardware\zeleno_hcuduino\REV1.0\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7446C42-A897-4CD4-A0A7-A556AF0FEF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E487B986-1A5B-4BC0-A361-4044CE048086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{631B98C8-4DDF-465E-A055-94CF091B2472}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{66ED291E-5F0A-46F0-AEF2-62900D51D654}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_PartType-hcuduino_r1.0" sheetId="1" r:id="rId1"/>
@@ -677,7 +677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B95BF89-269F-40A6-B4FE-AC4A6398C3D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234799B9-D77D-495E-9C6C-549F398F5FB4}">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/hardware/hcuduino_production_files/Rev1.0/BOM/BOM_PartType-hcuduino_r1.0.xlsx
+++ b/hardware/hcuduino_production_files/Rev1.0/BOM/BOM_PartType-hcuduino_r1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\hcu_hardware\hardware\zeleno_hcuduino\REV1.0\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E487B986-1A5B-4BC0-A361-4044CE048086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6CB84D7-201C-4220-A2F5-ACE404FED31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{66ED291E-5F0A-46F0-AEF2-62900D51D654}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{258F2595-CE53-47F7-9954-A434D7096062}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_PartType-hcuduino_r1.0" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'BOM_PartType-hcuduino_r1.0'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
   <si>
     <t>Designator</t>
   </si>
@@ -57,6 +57,30 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>SSQ-106-24-G-S</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Generic BOM Item</t>
+  </si>
+  <si>
+    <t>B2, B3</t>
+  </si>
+  <si>
+    <t>SSQ-108-24-G-S</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>SSQ-110-24-G-S</t>
   </si>
   <si>
     <t>C1, C2, C3, C7, C27</t>
@@ -677,8 +701,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234799B9-D77D-495E-9C6C-549F398F5FB4}">
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C0B671-F347-463B-BE44-9D81F056F403}">
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -719,359 +743,413 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D5" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>80</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
